--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -976,7 +976,7 @@
           <t>no: 68% (n = 71)
 inpatient: 25% (n = 26)
 outpatient: 6.7% (n = 7)
-complete: n = 104</t>
+n = 104</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -984,7 +984,7 @@
           <t>no: 89% (n = 24)
 inpatient: 0% (n = 0)
 outpatient: 11% (n = 3)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -992,7 +992,7 @@
           <t>no: 81% (n = 43)
 inpatient: 13% (n = 7)
 outpatient: 5.7% (n = 3)
-complete: n = 53</t>
+n = 53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1000,7 +1000,7 @@
           <t>no: 17% (n = 4)
 inpatient: 79% (n = 19)
 outpatient: 4.2% (n = 1)
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1073,25 +1073,25 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>65% (n = 68)
-complete: n = 105</t>
+n = 105</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>59% (n = 16)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>67% (n = 36)
-complete: n = 54</t>
+n = 54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>67% (n = 16)
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1114,25 +1114,25 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>33% (n = 35)
-complete: n = 106</t>
+n = 106</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>22% (n = 6)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>32% (n = 17)
-complete: n = 53</t>
+n = 53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>46% (n = 12)
-complete: n = 26</t>
+n = 26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1149,31 +1149,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT abnormality</t>
+          <t>CT abnormality (CT score ≥ 1)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>51% (n = 52)
-complete: n = 101</t>
+n = 101</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>13% (n = 3)
-complete: n = 23</t>
+n = 23</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>52% (n = 27)
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>85% (n = 22)
-complete: n = 26</t>
+n = 26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1196,25 +1196,25 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>63% (n = 67)
-complete: n = 107</t>
+n = 107</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>30% (n = 8)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>69% (n = 37)
-complete: n = 54</t>
+n = 54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>85% (n = 22)
-complete: n = 26</t>
+n = 26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1288,28 +1288,28 @@
         <is>
           <t>median: 550 [IQR: 490 - 630]
 range: 270 - 760
-complete: n = 102</t>
+n = 102</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>median: 580 [IQR: 540 - 640]
 range: 400 - 740
-complete: n = 26</t>
+n = 26</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>median: 540 [IQR: 460 - 620]
 range: 270 - 760
-complete: n = 51</t>
+n = 51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>median: 520 [IQR: 480 - 620]
 range: 310 - 700
-complete: n = 25</t>
+n = 25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -1333,28 +1333,28 @@
         <is>
           <t>median: -13 [IQR: -75 - 42]
 range: -230 - 140
-complete: n = 102</t>
+n = 102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>median: -27 [IQR: -83 - 25]
 range: -230 - 120
-complete: n = 26</t>
+n = 26</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>median: -3.6 [IQR: -63 - 47]
 range: -230 - 130
-complete: n = 51</t>
+n = 51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>median: -25 [IQR: -67 - 39]
 range: -210 - 140
-complete: n = 25</t>
+n = 25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1371,31 +1371,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SMDW &lt; ref.</t>
+          <t>SMWD &lt; ref.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>56% (n = 57)
-complete: n = 102</t>
+n = 102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>62% (n = 16)
-complete: n = 26</t>
+n = 26</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>51% (n = 26)
-complete: n = 51</t>
+n = 51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>60% (n = 15)
-complete: n = 25</t>
+n = 25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1412,35 +1412,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fatigue (likert CFS)</t>
+          <t>Fatigue score (likert CFS)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>median: 12 [IQR: 11 - 16]
 range: 0 - 32
-complete: n = 101</t>
+n = 101</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>median: 11 [IQR: 11 - 17]
 range: 0 - 26
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>median: 12 [IQR: 11 - 15]
 range: 1 - 24
-complete: n = 51</t>
+n = 51</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>median: 13 [IQR: 11 - 23]
 range: 1 - 32
-complete: n = 23</t>
+n = 23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1463,25 +1463,25 @@
       <c r="B6" t="inlineStr">
         <is>
           <t>37% (n = 38)
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>44% (n = 12)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>31% (n = 16)
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>42% (n = 10)
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1498,35 +1498,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>General health (EQ5D5L VAS)</t>
+          <t>General health score (EQ5D5L VAS)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>median: 85 [IQR: 75 - 90]
 range: 40 - 100
-complete: n = 102</t>
+n = 102</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>median: 85 [IQR: 75 - 94]
 range: 40 - 100
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>median: 85 [IQR: 80 - 90]
 range: 50 - 100
-complete: n = 51</t>
+n = 51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>median: 80 [IQR: 70 - 90]
 range: 40 - 100
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1543,31 +1543,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Imp. general health (EQ5D5L VAS &lt; 73)</t>
+          <t>Imp. general health (VAS &lt; 73, EQ5D5L)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>19% (n = 19)
-complete: n = 102</t>
+n = 102</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>19% (n = 5)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>14% (n = 7)
-complete: n = 51</t>
+n = 51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>29% (n = 7)
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1584,35 +1584,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mobility impairment (EQ5D5L)</t>
+          <t>Mobility impairment score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 3
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 2
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 3
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1.2]
 range: 1 - 3
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1629,31 +1629,31 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Imp. mobility (EQ5D5L)</t>
+          <t>Imp. mobility (score  &gt; 1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>14% (n = 14)
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>11% (n = 3)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>9.6% (n = 5)
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>25% (n = 6)
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1670,35 +1670,35 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Self-care impairment (EQ5D5L)</t>
+          <t>Self-care impairment score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 2
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 1
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 2
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 2
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1715,31 +1715,31 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Imp. self-care (EQ5D5L)</t>
+          <t>Imp. self-care (score  &gt; 1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>2.9% (n = 3)
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>0% (n = 0)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>1.9% (n = 1)
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>8.3% (n = 2)
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1756,35 +1756,35 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Activity impairment (EQ5D5L)</t>
+          <t>Activity impairment score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 3
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1.5]
 range: 1 - 3
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 3
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 2]
 range: 1 - 3
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1801,31 +1801,31 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Imp. usual activity (EQ5D5L)</t>
+          <t>Imp. usual activity (score  &gt; 1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>18% (n = 19)
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>26% (n = 7)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>9.6% (n = 5)
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>29% (n = 7)
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1842,35 +1842,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pain/discomfort (EQ5D5L)</t>
+          <t>Pain/discomfort score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 2]
 range: 1 - 4
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 2]
 range: 1 - 3
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 2]
 range: 1 - 4
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>median: 1.5 [IQR: 1 - 2]
 range: 1 - 4
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1887,31 +1887,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pain/discomfort present (EQ5D5L)</t>
+          <t>Pain/discomfort (score  &gt; 1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>36% (n = 37)
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>41% (n = 11)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>27% (n = 14)
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>50% (n = 12)
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1928,35 +1928,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Anxiety/depression (EQ5D5L)</t>
+          <t>Anxiety/depression score (EQ5D5L)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 2]
 range: 1 - 5
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 2]
 range: 1 - 4
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 1]
 range: 1 - 3
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>median: 1 [IQR: 1 - 2]
 range: 1 - 5
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1973,31 +1973,31 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Anxiety/depression present (EQ5D5L)</t>
+          <t>Anxiety/depression (score  &gt; 1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>28% (n = 29)
-complete: n = 103</t>
+n = 103</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>30% (n = 8)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>21% (n = 11)
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>42% (n = 10)
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2014,35 +2014,35 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Stress (PSS)</t>
+          <t>Stress score (PSS)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>median: 5 [IQR: 3 - 8]
 range: 0 - 11
-complete: n = 102</t>
+n = 102</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>median: 4 [IQR: 1 - 6.5]
 range: 0 - 11
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>median: 5 [IQR: 2.8 - 8]
 range: 0 - 11
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>median: 8 [IQR: 5 - 9.5]
 range: 0 - 11
-complete: n = 23</t>
+n = 23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2065,25 +2065,25 @@
       <c r="B20" t="inlineStr">
         <is>
           <t>49% (n = 50)
-complete: n = 102</t>
+n = 102</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>33% (n = 9)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>48% (n = 25)
-complete: n = 52</t>
+n = 52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>70% (n = 16)
-complete: n = 23</t>
+n = 23</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2100,35 +2100,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Somatic symptom disorder (SSD-12)</t>
+          <t>Somatic symptom disorder score (SSD-12)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>median: 7 [IQR: 3 - 13]
 range: 0 - 30
-complete: n = 101</t>
+n = 101</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>median: 5 [IQR: 2 - 10]
 range: 0 - 25
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>median: 5 [IQR: 2 - 9.8]
 range: 0 - 30
-complete: n = 50</t>
+n = 50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>median: 16 [IQR: 6.8 - 22]
 range: 0 - 30
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2145,35 +2145,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Resilience (BRCS)</t>
+          <t>Resilience score (BRCS)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>median: 16 [IQR: 13 - 18]
 range: 4 - 20
-complete: n = 100</t>
+n = 100</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>median: 18 [IQR: 14 - 19]
 range: 4 - 20
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>median: 16 [IQR: 12 - 18]
 range: 4 - 20
-complete: n = 49</t>
+n = 49</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>median: 16 [IQR: 14 - 17]
 range: 4 - 20
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2198,7 +2198,7 @@
           <t>low: 29% (n = 29)
 medium: 26% (n = 26)
 high: 45% (n = 45)
-complete: n = 100</t>
+n = 100</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2206,7 +2206,7 @@
           <t>low: 22% (n = 6)
 medium: 19% (n = 5)
 high: 59% (n = 16)
-complete: n = 27</t>
+n = 27</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2214,7 +2214,7 @@
           <t>low: 35% (n = 17)
 medium: 27% (n = 13)
 high: 39% (n = 19)
-complete: n = 49</t>
+n = 49</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2222,7 +2222,7 @@
           <t>low: 25% (n = 6)
 medium: 33% (n = 8)
 high: 42% (n = 10)
-complete: n = 24</t>
+n = 24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>p = 0.04</t>
+          <t>p = 0.043</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ns (p = 0.086)</t>
+          <t>ns (p = 0.09)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ns (p = 0.18)</t>
+          <t>ns (p = 0.19)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ns (p = 0.084)</t>
+          <t>ns (p = 0.088)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ns (p = 0.14)</t>
+          <t>ns (p = 0.15)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ns (p = 0.18)</t>
+          <t>ns (p = 0.19)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ns (p = 0.55)</t>
+          <t>ns (p = 0.56)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ns (p = 0.66)</t>
+          <t>ns (p = 0.67)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ns (p = 0.18)</t>
+          <t>ns (p = 0.19)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ns (p = 0.18)</t>
+          <t>ns (p = 0.19)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ns (p = 0.28)</t>
+          <t>ns (p = 0.29)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ns (p = 0.23)</t>
+          <t>ns (p = 0.24)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ns (p = 0.061)</t>
+          <t>ns (p = 0.065)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>p = 0.03</t>
+          <t>p = 0.032</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ns (p = 0.23)</t>
+          <t>ns (p = 0.24)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ns (p = 0.55)</t>
+          <t>ns (p = 0.56)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -353,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,7 +455,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>p = 0.043</t>
+          <t>p = 0.039</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ns (p = 0.32)</t>
+          <t>ns (p = 0.31)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ns (p = 0.24)</t>
+          <t>ns (p = 0.23)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ns (p = 0.09)</t>
+          <t>ns (p = 0.087)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ns (p = 0.19)</t>
+          <t>ns (p = 0.18)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ns (p = 0.088)</t>
+          <t>ns (p = 0.084)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CVD</t>
+          <t>Cardiovascular disease</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>p = 0.0027</t>
+          <t>p = 0.0025</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ns (p = 0.63)</t>
+          <t>ns (p = 0.62)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ns (p = 0.32)</t>
+          <t>ns (p = 0.31)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ns (p = 0.15)</t>
+          <t>ns (p = 0.13)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -894,7 +894,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CKD</t>
+          <t>Chronic kidney disease</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ns (p = 0.19)</t>
+          <t>ns (p = 0.18)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -931,7 +931,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GID</t>
+          <t>Gastrointestinal disease</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ns (p = 0.15)</t>
+          <t>ns (p = 0.14)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -968,10 +968,47 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Steroid therapy</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>19% (n = 20)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3.7% (n = 1)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16% (n = 9)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38% (n = 10)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>p = 0.033</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>V = 0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>Rehabilitation</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>no: 68% (n = 71)
 inpatient: 25% (n = 26)
@@ -979,7 +1016,7 @@
 n = 104</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>no: 89% (n = 24)
 inpatient: 0% (n = 0)
@@ -987,7 +1024,7 @@
 n = 27</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>no: 81% (n = 43)
 inpatient: 13% (n = 7)
@@ -995,7 +1032,7 @@
 n = 53</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>no: 17% (n = 4)
 inpatient: 79% (n = 19)
@@ -1003,12 +1040,12 @@
 n = 24</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>V = 0.5</t>
         </is>
@@ -1096,7 +1133,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ns (p = 0.86)</t>
+          <t>ns (p = 0.85)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1137,7 +1174,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ns (p = 0.32)</t>
+          <t>ns (p = 0.31)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1149,7 +1186,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CT abnormality (CT score ≥ 1)</t>
+          <t>CT abnormality (CT score ≥1)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1219,7 +1256,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>p = 0.001</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1281,7 +1318,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SMWD, m</t>
+          <t>6MWD, m</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1314,7 +1351,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ns (p = 0.19)</t>
+          <t>ns (p = 0.18)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1326,7 +1363,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SMWD vs ref., m</t>
+          <t>6MWD vs ref., m</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1359,7 +1396,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ns (p = 0.5)</t>
+          <t>ns (p = 0.49)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1371,7 +1408,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SMWD &lt; ref.</t>
+          <t>6MWD &lt; ref.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1400,7 +1437,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ns (p = 0.74)</t>
+          <t>ns (p = 0.73)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1457,7 +1494,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fatigue (bimodal CFS ≥ 4)</t>
+          <t>Fatigue (bimodal CFS ≥4)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1486,7 +1523,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ns (p = 0.56)</t>
+          <t>ns (p = 0.54)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1531,7 +1568,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ns (p = 0.67)</t>
+          <t>ns (p = 0.66)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1543,7 +1580,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Imp. general health (VAS &lt; 73, EQ5D5L)</t>
+          <t>Imp. general health (VAS &lt;73, EQ5D5L)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1572,7 +1609,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ns (p = 0.43)</t>
+          <t>ns (p = 0.42)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1617,7 +1654,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ns (p = 0.33)</t>
+          <t>ns (p = 0.32)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1629,7 +1666,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Imp. mobility (score  &gt; 1, EQ5D5L)</t>
+          <t>Imp. mobility (score &gt;1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1658,7 +1695,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ns (p = 0.32)</t>
+          <t>ns (p = 0.31)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1703,7 +1740,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ns (p = 0.32)</t>
+          <t>ns (p = 0.31)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1715,7 +1752,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Imp. self-care (score  &gt; 1, EQ5D5L)</t>
+          <t>Imp. self-care (score &gt;1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1744,7 +1781,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ns (p = 0.32)</t>
+          <t>ns (p = 0.31)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1789,7 +1826,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ns (p = 0.19)</t>
+          <t>ns (p = 0.18)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1801,7 +1838,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Imp. usual activity (score  &gt; 1, EQ5D5L)</t>
+          <t>Imp. usual activity (score &gt;1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1830,7 +1867,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ns (p = 0.19)</t>
+          <t>ns (p = 0.18)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1875,7 +1912,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ns (p = 0.29)</t>
+          <t>ns (p = 0.27)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1887,7 +1924,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pain/discomfort (score  &gt; 1, EQ5D5L)</t>
+          <t>Pain/discomfort (score &gt;1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1916,7 +1953,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ns (p = 0.27)</t>
+          <t>ns (p = 0.26)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1961,7 +1998,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ns (p = 0.24)</t>
+          <t>ns (p = 0.22)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1973,7 +2010,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Anxiety/depression (score  &gt; 1, EQ5D5L)</t>
+          <t>Anxiety/depression (score &gt;1, EQ5D5L)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2002,7 +2039,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ns (p = 0.32)</t>
+          <t>ns (p = 0.31)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2047,7 +2084,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ns (p = 0.065)</t>
+          <t>ns (p = 0.061)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2059,7 +2096,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Elevated stress (PSS &gt; 5)</t>
+          <t>Elevated stress (PSS &gt;5)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2088,7 +2125,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ns (p = 0.15)</t>
+          <t>ns (p = 0.14)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2133,7 +2170,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>p = 0.032</t>
+          <t>p = 0.031</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2178,7 +2215,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ns (p = 0.24)</t>
+          <t>ns (p = 0.22)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2227,7 +2264,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ns (p = 0.56)</t>
+          <t>ns (p = 0.54)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
